--- a/data/tech_ajt_datast.xlsx
+++ b/data/tech_ajt_datast.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7558,7 +7558,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -29398,7 +29398,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>синтаксическая</t>
+          <t>грамматическая</t>
         </is>
       </c>
       <c r="H717" t="inlineStr">
@@ -29527,7 +29527,7 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>синтаксическая</t>
+          <t>грамматическая</t>
         </is>
       </c>
       <c r="H720" t="inlineStr">
@@ -29567,7 +29567,7 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>синтаксическая</t>
+          <t>грамматическая</t>
         </is>
       </c>
       <c r="H721" t="inlineStr">
@@ -31331,7 +31331,7 @@
       </c>
       <c r="G765" t="inlineStr">
         <is>
-          <t>синтаксическая</t>
+          <t>грамматическая</t>
         </is>
       </c>
       <c r="H765" t="inlineStr">
@@ -34814,7 +34814,7 @@
       </c>
       <c r="G852" t="inlineStr">
         <is>
-          <t>синтаксическая</t>
+          <t>грамматическая</t>
         </is>
       </c>
       <c r="H852" t="inlineStr">
@@ -36934,7 +36934,7 @@
       </c>
       <c r="G905" t="inlineStr">
         <is>
-          <t>синтаксическая</t>
+          <t>грамматическая</t>
         </is>
       </c>
       <c r="H905" t="inlineStr">
@@ -37535,7 +37535,7 @@
       </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>синтаксическая</t>
+          <t>грамматическая</t>
         </is>
       </c>
       <c r="H920" t="inlineStr">
@@ -39417,7 +39417,7 @@
       </c>
       <c r="G967" t="inlineStr">
         <is>
-          <t>синтаксическая</t>
+          <t>грамматическая</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
